--- a/inputdatav2.xlsx
+++ b/inputdatav2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mydocs.msc.com/personal/jegadeesan_rameshbabu_msc_com/Documents/Technix24/Safe-Seas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{C6824CB5-BCFE-4840-9DDA-DBD36779C885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{254EBC96-264B-486A-8E27-820D9F3E8800}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{C6824CB5-BCFE-4840-9DDA-DBD36779C885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5736C2A6-C3C6-4368-8E73-208CAF0CA1B1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F76E2FE-39C6-490B-BECE-51E95BD83E17}"/>
   </bookViews>
@@ -248,9 +248,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,423 +589,426 @@
   <dimension ref="A1:AA5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z11" sqref="Z11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>7</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>3</v>
       </c>
-      <c r="H2" s="1">
-        <v>38.674159456136103</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1626.1207958196701</v>
-      </c>
-      <c r="J2" s="1">
-        <v>11.3222055553623</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="H2" s="2">
+        <v>39</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1626</v>
+      </c>
+      <c r="J2" s="2">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M2" s="1">
-        <v>6147.0613596098401</v>
-      </c>
-      <c r="N2" s="1">
-        <v>521606.603356932</v>
-      </c>
-      <c r="O2" s="1">
-        <v>63119.426229320503</v>
-      </c>
-      <c r="P2" s="1">
-        <v>748304.38893491798</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="M2" s="2">
+        <v>6147</v>
+      </c>
+      <c r="N2" s="2">
+        <v>521607</v>
+      </c>
+      <c r="O2" s="2">
+        <v>63119</v>
+      </c>
+      <c r="P2" s="2">
+        <v>748304</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R2" t="s">
+      <c r="R2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T2" t="s">
+      <c r="T2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="1">
-        <v>13.9899465123212</v>
-      </c>
-      <c r="W2" s="1">
-        <v>46531.010566710698</v>
-      </c>
-      <c r="X2" s="1">
-        <v>64.737023545519705</v>
-      </c>
-      <c r="Y2" t="s">
+      <c r="V2" s="2">
+        <v>14</v>
+      </c>
+      <c r="W2" s="2">
+        <v>46531</v>
+      </c>
+      <c r="X2" s="2">
+        <v>65</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="Z2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AA2" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>9</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>0</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>27</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>0</v>
       </c>
-      <c r="H3" s="1">
-        <v>27.024482806761299</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1817.0191116660001</v>
-      </c>
-      <c r="J3" s="1">
-        <v>11.4680007696271</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="H3" s="2">
+        <v>27</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1817</v>
+      </c>
+      <c r="J3" s="2">
+        <v>11</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="1">
-        <v>11099.983949687299</v>
-      </c>
-      <c r="N3" s="1">
-        <v>313659.72540544299</v>
-      </c>
-      <c r="O3" s="1">
-        <v>26020.017241376299</v>
-      </c>
-      <c r="P3" s="1">
-        <v>1053612.95958972</v>
-      </c>
-      <c r="Q3" t="s">
+      <c r="M3" s="2">
+        <v>11100</v>
+      </c>
+      <c r="N3" s="2">
+        <v>313660</v>
+      </c>
+      <c r="O3" s="2">
+        <v>26020</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1053613</v>
+      </c>
+      <c r="Q3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T3" t="s">
+      <c r="T3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U3" t="s">
+      <c r="U3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V3" s="1">
-        <v>10.113917684864999</v>
-      </c>
-      <c r="W3" s="1">
-        <v>10671.812854690401</v>
-      </c>
-      <c r="X3" s="1">
-        <v>16.674328489693998</v>
-      </c>
-      <c r="Y3" t="s">
+      <c r="V3" s="2">
+        <v>10</v>
+      </c>
+      <c r="W3" s="2">
+        <v>10672</v>
+      </c>
+      <c r="X3" s="2">
+        <v>17</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="Z3" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AA3" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>0</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>5</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>22</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>4</v>
       </c>
-      <c r="H4" s="1">
-        <v>35.073226932197002</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1897.64762579899</v>
-      </c>
-      <c r="J4" s="1">
-        <v>9.2463246410068791</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="H4" s="2">
+        <v>35</v>
+      </c>
+      <c r="I4" s="2">
+        <v>1898</v>
+      </c>
+      <c r="J4" s="2">
+        <v>9</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="L4" t="s">
+      <c r="L4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="1">
-        <v>7910.9567075982304</v>
-      </c>
-      <c r="N4" s="1">
-        <v>460367.55858513701</v>
-      </c>
-      <c r="O4" s="1">
-        <v>50956.163947290202</v>
-      </c>
-      <c r="P4" s="1">
-        <v>1019373.10712523</v>
-      </c>
-      <c r="Q4" t="s">
+      <c r="M4" s="2">
+        <v>7911</v>
+      </c>
+      <c r="N4" s="2">
+        <v>460368</v>
+      </c>
+      <c r="O4" s="2">
+        <v>50956</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1019373</v>
+      </c>
+      <c r="Q4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R4" t="s">
+      <c r="R4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="1">
-        <v>15.705523983458701</v>
-      </c>
-      <c r="W4" s="1">
-        <v>30557.014497881901</v>
-      </c>
-      <c r="X4" s="1">
-        <v>43.326803828815898</v>
-      </c>
-      <c r="Y4" t="s">
+      <c r="V4" s="2">
+        <v>16</v>
+      </c>
+      <c r="W4" s="2">
+        <v>30557</v>
+      </c>
+      <c r="X4" s="2">
+        <v>43</v>
+      </c>
+      <c r="Y4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Z4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AA4" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>1</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>12</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>6</v>
       </c>
-      <c r="H5" s="1">
-        <v>27.190268761524401</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1867.2731032269201</v>
-      </c>
-      <c r="J5" s="1">
-        <v>11.0293431087764</v>
-      </c>
-      <c r="K5" t="s">
+      <c r="H5" s="2">
         <v>27</v>
       </c>
-      <c r="L5" t="s">
+      <c r="I5" s="2">
+        <v>1867</v>
+      </c>
+      <c r="J5" s="2">
+        <v>11</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="M5" s="1">
-        <v>8688.6942370379402</v>
-      </c>
-      <c r="N5" s="1">
-        <v>620417.03691638599</v>
-      </c>
-      <c r="O5" s="1">
-        <v>59731.4883034288</v>
-      </c>
-      <c r="P5" s="1">
-        <v>845211.22082742699</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="M5" s="2">
+        <v>8689</v>
+      </c>
+      <c r="N5" s="2">
+        <v>620417</v>
+      </c>
+      <c r="O5" s="2">
+        <v>59731</v>
+      </c>
+      <c r="P5" s="2">
+        <v>845211</v>
+      </c>
+      <c r="Q5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R5" t="s">
+      <c r="R5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T5" t="s">
+      <c r="T5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="U5" t="s">
+      <c r="U5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="V5" s="1">
-        <v>14.5068179271777</v>
-      </c>
-      <c r="W5" s="1">
-        <v>55791.328875024403</v>
-      </c>
-      <c r="X5" s="1">
-        <v>77.148786311287694</v>
-      </c>
-      <c r="Y5" t="s">
+      <c r="V5" s="2">
+        <v>15</v>
+      </c>
+      <c r="W5" s="2">
+        <v>55791</v>
+      </c>
+      <c r="X5" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y5" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="Z5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AA5" s="1" t="s">
         <v>58</v>
       </c>
     </row>

--- a/inputdatav2.xlsx
+++ b/inputdatav2.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mydocs.msc.com/personal/jegadeesan_rameshbabu_msc_com/Documents/Technix24/Safe-Seas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{C6824CB5-BCFE-4840-9DDA-DBD36779C885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5736C2A6-C3C6-4368-8E73-208CAF0CA1B1}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="8_{C6824CB5-BCFE-4840-9DDA-DBD36779C885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F9AD01D-E98A-4BCA-BD2A-08B0E82D9700}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2F76E2FE-39C6-490B-BECE-51E95BD83E17}"/>
   </bookViews>
   <sheets>
     <sheet name="Routes" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>RouteID</t>
   </si>
@@ -80,12 +81,6 @@
     <t>Operational_Cost</t>
   </si>
   <si>
-    <t>Insurance_Premium</t>
-  </si>
-  <si>
-    <t>Total_Revenue</t>
-  </si>
-  <si>
     <t>Regulatory_Compliance</t>
   </si>
   <si>
@@ -107,30 +102,15 @@
     <t>RiskScore</t>
   </si>
   <si>
-    <t>Scaled_RiskScore</t>
-  </si>
-  <si>
     <t>Risk_Category</t>
   </si>
   <si>
-    <t>Test A</t>
-  </si>
-  <si>
-    <t>Test B</t>
-  </si>
-  <si>
     <t>irregular</t>
   </si>
   <si>
-    <t>shallow waters</t>
-  </si>
-  <si>
     <t>compliant</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>in place</t>
   </si>
   <si>
@@ -140,15 +120,6 @@
     <t>container</t>
   </si>
   <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>PortB</t>
-  </si>
-  <si>
-    <t>PortX</t>
-  </si>
-  <si>
     <t>regular</t>
   </si>
   <si>
@@ -164,27 +135,15 @@
     <t>Low</t>
   </si>
   <si>
-    <t>PortC</t>
-  </si>
-  <si>
-    <t>PortZ</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
     <t>Medium</t>
   </si>
   <si>
-    <t>congested areas</t>
-  </si>
-  <si>
     <t>non-compliant</t>
   </si>
   <si>
-    <t>Critical</t>
-  </si>
-  <si>
     <t>Stops_Names</t>
   </si>
   <si>
@@ -213,6 +172,33 @@
   </si>
   <si>
     <t>[34.0522, -118.2437],[20.081771, -114.626589],[13.9250, -90.8200],[6.622934, -87.477794],[6.657392, -79.777054],[8.9500, -79.5667], [-1.401620, -81.031296],[-5.755771, -82.337798],[-12.0432, -77.0282]</t>
+  </si>
+  <si>
+    <t>No_Of_Travels</t>
+  </si>
+  <si>
+    <t>Cargo_Value</t>
+  </si>
+  <si>
+    <t>R0001</t>
+  </si>
+  <si>
+    <t>Tanger Med</t>
+  </si>
+  <si>
+    <t>Rotterdam</t>
+  </si>
+  <si>
+    <t>not in place</t>
+  </si>
+  <si>
+    <t>R0002</t>
+  </si>
+  <si>
+    <t>R0003</t>
+  </si>
+  <si>
+    <t>R0004</t>
   </si>
 </sst>
 </file>
@@ -248,10 +234,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,430 +570,415 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15D23072-7820-4CE9-AD85-60562B9E92C0}">
-  <dimension ref="A1:AA5"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="24" max="24" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>21</v>
+      </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>20</v>
+      </c>
+      <c r="J2">
+        <v>1517</v>
+      </c>
+      <c r="K2">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2">
+        <v>750</v>
+      </c>
+      <c r="O2">
+        <v>407396</v>
+      </c>
+      <c r="P2" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" t="s">
+        <v>25</v>
+      </c>
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2">
+        <v>9</v>
+      </c>
+      <c r="V2">
+        <v>339388</v>
+      </c>
+      <c r="W2">
+        <v>37</v>
+      </c>
+      <c r="X2" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <v>80</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3">
+        <v>1795</v>
+      </c>
+      <c r="K3">
+        <v>12</v>
+      </c>
+      <c r="L3" t="s">
+        <v>27</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3">
+        <v>874</v>
+      </c>
+      <c r="O3">
+        <v>418250</v>
+      </c>
+      <c r="P3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" t="s">
+        <v>50</v>
+      </c>
+      <c r="S3" t="s">
+        <v>29</v>
+      </c>
+      <c r="T3" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3">
+        <v>16</v>
+      </c>
+      <c r="V3">
+        <v>520465</v>
+      </c>
+      <c r="W3">
+        <v>38</v>
+      </c>
+      <c r="X3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>10</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>21</v>
+      </c>
+      <c r="J4">
+        <v>1271</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4">
+        <v>937</v>
+      </c>
+      <c r="O4">
+        <v>227480</v>
+      </c>
+      <c r="P4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="S4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" t="s">
+        <v>26</v>
+      </c>
+      <c r="U4">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <v>589076</v>
+      </c>
+      <c r="W4">
+        <v>14</v>
+      </c>
+      <c r="X4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
         <v>49</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>6</v>
+      </c>
+      <c r="G5">
+        <v>42</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>19</v>
+      </c>
+      <c r="J5">
+        <v>1461</v>
+      </c>
+      <c r="K5">
+        <v>16</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5">
+        <v>675</v>
+      </c>
+      <c r="O5">
+        <v>359124</v>
+      </c>
+      <c r="P5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>32</v>
+      </c>
+      <c r="R5" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1">
-        <v>2</v>
-      </c>
-      <c r="G2" s="1">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2">
-        <v>39</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1626</v>
-      </c>
-      <c r="J2" s="2">
-        <v>11</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M2" s="2">
-        <v>6147</v>
-      </c>
-      <c r="N2" s="2">
-        <v>521607</v>
-      </c>
-      <c r="O2" s="2">
-        <v>63119</v>
-      </c>
-      <c r="P2" s="2">
-        <v>748304</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S5" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="T5" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="U5">
+        <v>16</v>
+      </c>
+      <c r="V5">
+        <v>387709</v>
+      </c>
+      <c r="W5">
         <v>31</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="X5" t="s">
         <v>33</v>
       </c>
-      <c r="V2" s="2">
-        <v>14</v>
-      </c>
-      <c r="W2" s="2">
-        <v>46531</v>
-      </c>
-      <c r="X2" s="2">
-        <v>65</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="1">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>27</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="2">
-        <v>27</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1817</v>
-      </c>
-      <c r="J3" s="2">
-        <v>11</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="2">
-        <v>11100</v>
-      </c>
-      <c r="N3" s="2">
-        <v>313660</v>
-      </c>
-      <c r="O3" s="2">
-        <v>26020</v>
-      </c>
-      <c r="P3" s="2">
-        <v>1053613</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V3" s="2">
-        <v>10</v>
-      </c>
-      <c r="W3" s="2">
-        <v>10672</v>
-      </c>
-      <c r="X3" s="2">
-        <v>17</v>
-      </c>
-      <c r="Y3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="Y5" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="1">
-        <v>0</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>22</v>
-      </c>
-      <c r="G4" s="1">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2">
-        <v>35</v>
-      </c>
-      <c r="I4" s="2">
-        <v>1898</v>
-      </c>
-      <c r="J4" s="2">
-        <v>9</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="2">
-        <v>7911</v>
-      </c>
-      <c r="N4" s="2">
-        <v>460368</v>
-      </c>
-      <c r="O4" s="2">
-        <v>50956</v>
-      </c>
-      <c r="P4" s="2">
-        <v>1019373</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="1" t="s">
+      <c r="Z5" t="s">
         <v>44</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V4" s="2">
-        <v>16</v>
-      </c>
-      <c r="W4" s="2">
-        <v>30557</v>
-      </c>
-      <c r="X4" s="2">
-        <v>43</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>12</v>
-      </c>
-      <c r="G5" s="1">
-        <v>6</v>
-      </c>
-      <c r="H5" s="2">
-        <v>27</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1867</v>
-      </c>
-      <c r="J5" s="2">
-        <v>11</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="2">
-        <v>8689</v>
-      </c>
-      <c r="N5" s="2">
-        <v>620417</v>
-      </c>
-      <c r="O5" s="2">
-        <v>59731</v>
-      </c>
-      <c r="P5" s="2">
-        <v>845211</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V5" s="2">
-        <v>15</v>
-      </c>
-      <c r="W5" s="2">
-        <v>55791</v>
-      </c>
-      <c r="X5" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z5" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA5" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1020,6 +989,20 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7514F2F-77B7-4660-A1A9-B83FA6E2FD87}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{fc24caf1-31f7-40c1-bde0-ca915f0156e3}" enabled="1" method="Standard" siteId="{088e9b00-ffd0-458e-bfa1-acf4c596d3cb}" removed="0"/>
